--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_AT.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_AT.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A78B77-EB8D-4904-8690-69FE0CB010FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E39F9BCE-80C9-43E0-A13F-C77FCE8D49E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1800" windowWidth="51840" windowHeight="21120" xr2:uid="{CB57E15F-D274-402C-9CE5-B3FD0D6914B1}"/>
+    <workbookView xWindow="34965" yWindow="3495" windowWidth="17250" windowHeight="8865" xr2:uid="{423A6E6E-5FAF-40A5-8F78-01BB192CD69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,10 +101,10 @@
     <t>$</t>
   </si>
   <si>
-    <t>CIMS.CAN.AT.Natural Gas Extraction.Natural Gas.Exploration and Production.Conventional Production</t>
-  </si>
-  <si>
-    <t>Natural Gas Extraction</t>
+    <t>CIMS.CAN.AT.Natural Gas Production.Natural Gas.Exploration and Production.Conventional Production</t>
+  </si>
+  <si>
+    <t>Natural Gas Production</t>
   </si>
   <si>
     <t>Conventional Production</t>
@@ -122,7 +119,7 @@
     <t>Raw NG aggresive LDAR</t>
   </si>
   <si>
-    <t>CIMS.CAN.AT.Natural Gas Extraction.Natural Gas.Processing.Processing Plants</t>
+    <t>CIMS.CAN.AT.Natural Gas Production.Natural Gas.Processing.Processing Plants</t>
   </si>
   <si>
     <t>Processing Plants</t>
@@ -134,7 +131,7 @@
     <t>NG Eff</t>
   </si>
   <si>
-    <t>CIMS.CAN.AT.Natural Gas Extraction.Direct Heat</t>
+    <t>CIMS.CAN.AT.Natural Gas Production.Direct Heat</t>
   </si>
   <si>
     <t>Direct Heat</t>
@@ -146,7 +143,7 @@
     <t>Boilers improved thermal eff CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.AT.Natural Gas Extraction.Direct Drive Small</t>
+    <t>CIMS.CAN.AT.Natural Gas Production.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -994,19 +991,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,7 +1309,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B9A104-94CB-41D5-B376-4B3DFB483CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E7CE1F-81DC-4E9A-9D6F-97F5016A13F4}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2404,49 +2389,48 @@
       <c r="L17" t="s">
         <v>20</v>
       </c>
-      <c r="M17" t="e">
-        <f>[1]BC!$M$29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W17" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="M17">
+        <v>400000000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
@@ -2474,49 +2458,48 @@
       <c r="L18" t="s">
         <v>20</v>
       </c>
-      <c r="M18" t="e">
-        <f>[1]BC!$M$30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="Q18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="R18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="S18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="T18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="U18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="V18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="W18" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
+      <c r="M18">
+        <v>400000000</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>400000000</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
